--- a/Statistics Project.xlsx
+++ b/Statistics Project.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vamsi/Documents/Data Analyst Journey/Git Hub Projects/Statistics Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vamsi/Documents/Education/Data Analyst Journey/Git Hub Projects/Statistics Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A20ACC9F-BB76-0745-B13D-E43B0A9621ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B383A26B-77E7-724B-81C8-EE42AF876495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="28480" windowHeight="15640" xr2:uid="{E4D2538B-25EE-BE4A-9F47-B3746137F136}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="17380" xr2:uid="{E4D2538B-25EE-BE4A-9F47-B3746137F136}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$2:$D$12</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$I$8</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$I$9:$I$16</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$D$2:$D$12</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$I$8</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$I$9:$I$16</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -230,7 +222,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -246,15 +238,8 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -368,7 +353,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1332,15 +1317,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1370,14 +1355,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{637366D5-0B6A-A94B-BFEA-A43342649EEC}" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{637366D5-0B6A-A94B-BFEA-A43342649EEC}" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:E11" xr:uid="{637366D5-0B6A-A94B-BFEA-A43342649EEC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{21B3152A-73C6-174D-8D33-545DB128927D}" name="Name" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{EE637160-5FE4-564B-8B0B-D8D2E7D52165}" name="Department" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{50A74392-99C3-7E4D-8E3E-380B8E25549E}" name="Monthly Sales" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{253CEE57-CF77-9A43-99DD-4E7BF5A60EF6}" name="Bonus" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{583552C9-1E62-F244-B6C9-971AC1A74C6F}" name="Feedback" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{21B3152A-73C6-174D-8D33-545DB128927D}" name="Name" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{EE637160-5FE4-564B-8B0B-D8D2E7D52165}" name="Department" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{50A74392-99C3-7E4D-8E3E-380B8E25549E}" name="Monthly Sales" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{253CEE57-CF77-9A43-99DD-4E7BF5A60EF6}" name="Bonus" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{583552C9-1E62-F244-B6C9-971AC1A74C6F}" name="Feedback" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1702,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C53C29-E11E-6247-989C-627C207B79EF}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1803,8 +1788,8 @@
         <v>8600</v>
       </c>
       <c r="J3" s="3">
-        <f>_xlfn.STDEV.P(D2:D11)</f>
-        <v>1067.5204916066014</v>
+        <f>ROUND(_xlfn.STDEV.P(D2:D11),2)</f>
+        <v>1067.52</v>
       </c>
       <c r="K3" s="2"/>
     </row>
@@ -1888,8 +1873,8 @@
         <v>4200</v>
       </c>
       <c r="J6" s="3">
-        <f>_xlfn.STDEV.S(D2:D11)</f>
-        <v>1125.265400793174</v>
+        <f>ROUND(_xlfn.STDEV.S(D2:D11),2)</f>
+        <v>1125.27</v>
       </c>
       <c r="K6" s="2"/>
     </row>
@@ -1969,7 +1954,7 @@
         <v>6950</v>
       </c>
       <c r="I9" s="3">
-        <f>(D2-G$3)/_xlfn.STDEV.S(D$2:D$11)</f>
+        <f t="shared" ref="I9:I16" si="0">(D2-G$3)/_xlfn.STDEV.S(D$2:D$11)</f>
         <v>-0.15996226301201663</v>
       </c>
       <c r="J9" s="3">
@@ -1997,7 +1982,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="3">
-        <f>(D3-G$3)/_xlfn.STDEV.S(D$2:D$11)</f>
+        <f t="shared" si="0"/>
         <v>0.90645282373476088</v>
       </c>
       <c r="J10" s="2"/>
@@ -2026,7 +2011,7 @@
         <v>19</v>
       </c>
       <c r="I11" s="3">
-        <f>(D4-G$3)/_xlfn.STDEV.S(D$2:D$11)</f>
+        <f t="shared" si="0"/>
         <v>-1.0486415019676645</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -2044,39 +2029,39 @@
         <v>1100</v>
       </c>
       <c r="I12" s="3">
-        <f>(D5-G$3)/_xlfn.STDEV.S(D$2:D$11)</f>
+        <f t="shared" si="0"/>
         <v>-2.1150565887144421</v>
       </c>
       <c r="J12" s="3">
-        <f>_xlfn.PERCENTRANK.INC(D2:D11, 6400)</f>
-        <v>0.55500000000000005</v>
+        <f>ROUND(_xlfn.PERCENTRANK.INC(D2:D11, 6400),2)</f>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="I13" s="3">
-        <f>(D6-G$3)/_xlfn.STDEV.S(D$2:D$11)</f>
+        <f t="shared" si="0"/>
         <v>0.55098112815250178</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="I14" s="3">
-        <f>(D7-G$3)/_xlfn.STDEV.S(D$2:D$11)</f>
+        <f t="shared" si="0"/>
         <v>0.19550943257024256</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="I15" s="3">
-        <f>(D8-G$3)/_xlfn.STDEV.S(D$2:D$11)</f>
+        <f t="shared" si="0"/>
         <v>-0.33769811080314621</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="I16" s="3">
-        <f>(D9-G$3)/_xlfn.STDEV.S(D$2:D$11)</f>
+        <f t="shared" si="0"/>
         <v>0.72871697594363127</v>
       </c>
     </row>
@@ -2094,11 +2079,21 @@
     <mergeCell ref="G1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>3800</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>7600</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>3800</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:I16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Statistics Project.xlsx
+++ b/Statistics Project.xlsx
@@ -8,14 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vamsi/Documents/Education/Data Analyst Journey/Git Hub Projects/Statistics Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B383A26B-77E7-724B-81C8-EE42AF876495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81C1AD7-A852-D245-B35E-91471B3A128B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="17380" xr2:uid="{E4D2538B-25EE-BE4A-9F47-B3746137F136}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Pivot table for table 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Pivot table for statistics" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId4"/>
+    <pivotCache cacheId="13" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -134,9 +140,6 @@
     <t>Upper bounds of outliners</t>
   </si>
   <si>
-    <t>Outliners in Bonus column</t>
-  </si>
-  <si>
     <t>Standard Deviation P</t>
   </si>
   <si>
@@ -150,6 +153,27 @@
   </si>
   <si>
     <t>Answers</t>
+  </si>
+  <si>
+    <t>Outliners in Bonus</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Monthly Sales</t>
+  </si>
+  <si>
+    <t>Sum of Bonus</t>
+  </si>
+  <si>
+    <t>#N/A</t>
+  </si>
+  <si>
+    <t>(blank)</t>
   </si>
 </sst>
 </file>
@@ -206,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -218,11 +242,73 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -236,6 +322,866 @@
           <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -398,6 +1344,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Salary</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> &amp; Bonus of each employee</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -411,13 +1393,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -431,59 +1419,49 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Outliners in Bonus column</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
                   <a:schemeClr val="accent1">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
                   <a:schemeClr val="accent1">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
                   <a:schemeClr val="accent1">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
               <a:lin ang="5400000" scaled="0"/>
             </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -503,9 +1481,8 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -516,7 +1493,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -531,9 +1508,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -543,47 +1520,534 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data!$A$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Data!$A$2:$A$11</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Data!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Aisha</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rahul</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neha</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Simran</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>David</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Riya</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Karan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Deepa</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Carlos</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Aryan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$9:$I$16</c:f>
+              <c:f>Data!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-0.15996226301201663</c:v>
+                  <c:v>23000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90645282373476088</c:v>
+                  <c:v>27000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.0486415019676645</c:v>
+                  <c:v>19500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.1150565887144421</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55098112815250178</c:v>
+                  <c:v>28000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.19550943257024256</c:v>
+                  <c:v>26000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.33769811080314621</c:v>
+                  <c:v>21000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.72871697594363127</c:v>
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7E55-F14F-9545-AAFDC8E74EC7}"/>
+              <c16:uniqueId val="{00000000-2C32-5F47-89DE-081BF44984AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data!$A$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Data!$A$2:$A$11</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Data!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Aisha</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rahul</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neha</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Simran</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>David</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Riya</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Karan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Deepa</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Carlos</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Aryan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2C32-5F47-89DE-081BF44984AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Data!$A$2:$B$11</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Data!$A$2:$A$11</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Data!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Aisha</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rahul</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neha</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Simran</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>David</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Riya</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Karan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Deepa</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Carlos</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Aryan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2C32-5F47-89DE-081BF44984AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -591,29 +2055,100 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="391842736"/>
-        <c:axId val="391844448"/>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1675611199"/>
+        <c:axId val="1675609855"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="391842736"/>
+        <c:axId val="1675611199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Employee</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> names</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -627,9 +2162,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -640,7 +2174,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391844448"/>
+        <c:crossAx val="1675609855"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -648,19 +2182,19 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="391844448"/>
+        <c:axId val="1675609855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -686,9 +2220,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -699,7 +2232,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391842736"/>
+        <c:crossAx val="1675611199"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -711,19 +2244,523 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Outlier</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>s in bonus</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$I$9:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.15996226301201663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90645282373476088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.0486415019676645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.1150565887144421</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55098112815250178</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19550943257024256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.33769811080314621</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72871697594363127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7DBA-A047-A98C-2B7BD8622B69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -788,36 +2825,74 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -825,7 +2900,7 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -833,29 +2908,36 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -874,14 +2956,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -889,62 +2963,36 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="15875" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -956,30 +3004,593 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
@@ -998,17 +3609,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1025,15 +3636,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1049,7 +3660,7 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -1068,11 +3679,12 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -1093,12 +3705,24 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1112,12 +3736,24 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1131,9 +3767,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -1150,9 +3786,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1163,14 +3799,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1178,7 +3822,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1191,17 +3835,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1219,12 +3863,12 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1233,24 +3877,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1262,9 +3906,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1282,9 +3926,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1295,11 +3939,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1317,23 +3966,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDFE1A2E-3D19-3DF9-7F25-F5DE6AD04DA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B1F1108-1CA7-7C15-B434-0CABA88CC2CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1351,20 +4000,898 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1727200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10E0F1C-683F-369E-CE2D-BAAD0966878A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vamsi Majeti" refreshedDate="45924.335678240743" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{00D6EB3E-E9F4-9645-916D-23FE352E76E8}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Aisha"/>
+        <s v="Rahul"/>
+        <s v="Neha"/>
+        <s v="Simran"/>
+        <s v="David"/>
+        <s v="Riya"/>
+        <s v="Karan"/>
+        <s v="Deepa"/>
+        <s v="Carlos"/>
+        <s v="Aryan"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Department" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Tech"/>
+        <s v="Sales"/>
+        <s v="HR"/>
+        <s v="Finance"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Monthly Sales" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="15000" maxValue="29000"/>
+    </cacheField>
+    <cacheField name="Bonus" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3800" maxValue="7600"/>
+    </cacheField>
+    <cacheField name="Feedback" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Excellent"/>
+        <s v="Okay"/>
+        <s v="Poor"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vamsi Majeti" refreshedDate="45924.335988425926" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="15" xr:uid="{18E1B032-C7BB-8143-8EDB-F3A699C9CAA9}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="G2:J17" sheet="Data"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Average Bonus" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3800" maxValue="6300" count="8">
+        <n v="6180"/>
+        <m/>
+        <s v="Median Bonus"/>
+        <n v="6300"/>
+        <s v="Bonus Range"/>
+        <n v="3800"/>
+        <s v="Mode Range"/>
+        <e v="#N/A"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Q1" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1100" maxValue="6950" count="8">
+        <n v="5850"/>
+        <m/>
+        <s v="Q2"/>
+        <n v="6300"/>
+        <s v="Q3"/>
+        <n v="6950"/>
+        <s v="IQR"/>
+        <n v="1100"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Upper bounds of outliners" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="-2.1150565887144421" maxValue="8600" count="13">
+        <n v="8600"/>
+        <m/>
+        <s v="Lower bounds of outliners"/>
+        <n v="4200"/>
+        <s v="Outliners in Bonus"/>
+        <n v="-0.15996226301201663"/>
+        <n v="0.90645282373476088"/>
+        <n v="-1.0486415019676645"/>
+        <n v="-2.1150565887144421"/>
+        <n v="0.55098112815250178"/>
+        <n v="0.19550943257024256"/>
+        <n v="-0.33769811080314621"/>
+        <n v="0.72871697594363127"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Standard Deviation P" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.56000000000000005" maxValue="7040" count="8">
+        <n v="1067.52"/>
+        <m/>
+        <s v="Standard Deviation S"/>
+        <n v="1125.27"/>
+        <s v="80th Percentile bonus"/>
+        <n v="7040"/>
+        <s v="Percentile rank for bonus of 6400"/>
+        <n v="0.56000000000000005"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="23000"/>
+    <n v="6000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="27000"/>
+    <n v="7200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="19500"/>
+    <n v="5000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="15000"/>
+    <n v="3800"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="28000"/>
+    <n v="6800"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="26000"/>
+    <n v="6400"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="21000"/>
+    <n v="5800"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="25000"/>
+    <n v="7000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="29000"/>
+    <n v="7600"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="24000"/>
+    <n v="6200"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="15">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D006D560-107B-F04D-8238-375387621550}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="4"/>
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="20">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Bonus" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Monthly Sales" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A2341D8-3E0E-AD42-AE4B-C1E4A5357E71}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="7"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item x="8"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="7"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="4">
+    <field x="3"/>
+    <field x="2"/>
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="48">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="3">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="3">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="3">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="3">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="3">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="3">
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{637366D5-0B6A-A94B-BFEA-A43342649EEC}" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{637366D5-0B6A-A94B-BFEA-A43342649EEC}" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
   <autoFilter ref="A1:E11" xr:uid="{637366D5-0B6A-A94B-BFEA-A43342649EEC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{21B3152A-73C6-174D-8D33-545DB128927D}" name="Name" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{EE637160-5FE4-564B-8B0B-D8D2E7D52165}" name="Department" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{50A74392-99C3-7E4D-8E3E-380B8E25549E}" name="Monthly Sales" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{253CEE57-CF77-9A43-99DD-4E7BF5A60EF6}" name="Bonus" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{583552C9-1E62-F244-B6C9-971AC1A74C6F}" name="Feedback" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{21B3152A-73C6-174D-8D33-545DB128927D}" name="Name" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{EE637160-5FE4-564B-8B0B-D8D2E7D52165}" name="Department" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{50A74392-99C3-7E4D-8E3E-380B8E25549E}" name="Monthly Sales" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{253CEE57-CF77-9A43-99DD-4E7BF5A60EF6}" name="Bonus" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{583552C9-1E62-F244-B6C9-971AC1A74C6F}" name="Feedback" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{13F9E659-77E6-244F-AED2-B9F00B683D71}" name="Table10" displayName="Table10" ref="I5:I6" totalsRowShown="0" headerRowDxfId="22" dataDxfId="23">
+  <autoFilter ref="I5:I6" xr:uid="{13F9E659-77E6-244F-AED2-B9F00B683D71}">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{00F1F565-DE6E-A94C-B8A2-EA759D5959FA}" name="Lower bounds of outliners" dataDxfId="24">
+      <calculatedColumnFormula>H3-(1.5*H12)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2FBFC2A8-511B-6744-8B2B-5D2A07CB66B8}" name="Table12" displayName="Table12" ref="J2:J3" totalsRowShown="0" headerRowDxfId="19" dataDxfId="20">
+  <autoFilter ref="J2:J3" xr:uid="{2FBFC2A8-511B-6744-8B2B-5D2A07CB66B8}">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{F80E5B56-9957-AC44-9E29-643A1604E0BC}" name="Standard Deviation P" dataDxfId="21">
+      <calculatedColumnFormula>ROUND(_xlfn.STDEV.P(D2:D11),2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{AB1842D7-D334-BB40-A224-A837FAAAF825}" name="Table13" displayName="Table13" ref="J5:J6" totalsRowShown="0" headerRowDxfId="16" dataDxfId="17">
+  <autoFilter ref="J5:J6" xr:uid="{AB1842D7-D334-BB40-A224-A837FAAAF825}">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{6AE91F1C-6D92-6E4A-AE38-A299FA456268}" name="Standard Deviation S" dataDxfId="18">
+      <calculatedColumnFormula>ROUND(_xlfn.STDEV.S(D2:D11),2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CA69120F-1711-B948-B1CC-DB4FE4DF4BAC}" name="Table14" displayName="Table14" ref="J8:J9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="14">
+  <autoFilter ref="J8:J9" xr:uid="{CA69120F-1711-B948-B1CC-DB4FE4DF4BAC}">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{E589F6A1-DB11-E643-A30F-341E1A9E0E76}" name="80th Percentile bonus" dataDxfId="15">
+      <calculatedColumnFormula>_xlfn.PERCENTILE.INC(D2:D11, 0.8)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{EE52EA09-C106-4B4A-84CF-A186A49146AB}" name="Table15" displayName="Table15" ref="J11:J12" totalsRowShown="0" headerRowDxfId="10" dataDxfId="11">
+  <autoFilter ref="J11:J12" xr:uid="{EE52EA09-C106-4B4A-84CF-A186A49146AB}">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{58D0566C-2CAC-434B-B8DD-81EA72608347}" name="Percentile rank for bonus of 6400" dataDxfId="12">
+      <calculatedColumnFormula>ROUND(_xlfn.PERCENTRANK.INC(D2:D11, 6400),2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E322CE26-A7AD-3442-954B-54C6994026F9}" name="Table16" displayName="Table16" ref="I8:I17" totalsRowCount="1" headerRowDxfId="8" dataDxfId="9">
+  <autoFilter ref="I8:I16" xr:uid="{E322CE26-A7AD-3442-954B-54C6994026F9}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{9BBCAAD1-96BE-5845-AA49-CCACBB1A6657}" name="Outliners in Bonus" totalsRowFunction="max" dataDxfId="1" totalsRowDxfId="0">
+      <calculatedColumnFormula>(D2-G$3)/_xlfn.STDEV.S(D$2:D$11)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium24" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{71D1CACF-46E6-2041-B6C7-2FD33D8C4849}" name="Table2" displayName="Table2" ref="G2:G3" headerRowDxfId="49" dataDxfId="50">
+  <autoFilter ref="G2:G3" xr:uid="{71D1CACF-46E6-2041-B6C7-2FD33D8C4849}">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{95CF0BF4-D942-3546-9CB9-AF449EDE2973}" name="Average Bonus" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="45">
+      <calculatedColumnFormula>AVERAGE(D2:D12)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E8E98D4-81A4-6044-8278-7788C1F6338E}" name="Table3" displayName="Table3" ref="G5:G6" headerRowDxfId="46" dataDxfId="47">
+  <autoFilter ref="G5:G6" xr:uid="{8E8E98D4-81A4-6044-8278-7788C1F6338E}">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{0BAB3E86-7773-DB4C-B11A-BDFF216D64B1}" name="Median Bonus" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="44">
+      <calculatedColumnFormula>MEDIAN(D2:D11)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8AB8E6C0-60A5-5148-BDB1-DED3E12B73E8}" name="Table4" displayName="Table4" ref="G8:G9" headerRowDxfId="41" dataDxfId="42">
+  <autoFilter ref="G8:G9" xr:uid="{8AB8E6C0-60A5-5148-BDB1-DED3E12B73E8}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{22C39EFB-0D04-8F4E-B534-291543F7CEF9}" name="Bonus Range" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="40">
+      <calculatedColumnFormula>MAX(D2:D11)-MIN(D2:D11)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9EF8A1CC-3671-4B44-BB50-D96FFF45E33F}" name="Table5" displayName="Table5" ref="H2:H3" totalsRowShown="0" headerRowDxfId="37" dataDxfId="38">
+  <autoFilter ref="H2:H3" xr:uid="{9EF8A1CC-3671-4B44-BB50-D96FFF45E33F}">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{52C21250-FEC6-534D-B40F-153B8DE3F588}" name="Q1" dataDxfId="39">
+      <calculatedColumnFormula>_xlfn.QUARTILE.INC(D2:D11,1)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBC3A5D8-66E5-9644-8396-3469378CDC49}" name="Table6" displayName="Table6" ref="H5:H6" totalsRowShown="0" headerRowDxfId="34" dataDxfId="35">
+  <autoFilter ref="H5:H6" xr:uid="{DBC3A5D8-66E5-9644-8396-3469378CDC49}">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{8A7F582E-D428-6447-BEF0-2A76532074E5}" name="Q2" dataDxfId="36">
+      <calculatedColumnFormula>_xlfn.QUARTILE.INC(D2:D11,2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CE644ED4-ACCF-BA4D-A72D-903F48C5C6F5}" name="Table7" displayName="Table7" ref="H8:H9" totalsRowShown="0" headerRowDxfId="31" dataDxfId="32">
+  <autoFilter ref="H8:H9" xr:uid="{CE644ED4-ACCF-BA4D-A72D-903F48C5C6F5}">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{D7A8A560-FAA8-BD47-ABD7-4817EBAB3527}" name="Q3" dataDxfId="33">
+      <calculatedColumnFormula>_xlfn.QUARTILE.INC(D2:D11,3)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DD2D2CBB-6499-924E-91A5-7789E4C5E0D5}" name="Table8" displayName="Table8" ref="H11:H12" totalsRowShown="0" headerRowDxfId="28" dataDxfId="29">
+  <autoFilter ref="H11:H12" xr:uid="{DD2D2CBB-6499-924E-91A5-7789E4C5E0D5}">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{7C712CA8-9B60-9B46-B955-1E50EF1C14C4}" name="IQR" dataDxfId="30">
+      <calculatedColumnFormula>H9-H3</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EA7BC62F-F1E1-B64B-A32D-DFEB788F8CF2}" name="Table9" displayName="Table9" ref="I2:I3" totalsRowShown="0" headerRowDxfId="25" dataDxfId="26">
+  <autoFilter ref="I2:I3" xr:uid="{EA7BC62F-F1E1-B64B-A32D-DFEB788F8CF2}">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{300B4C4E-1B2F-EE4C-94E5-1A9CCBB6AAB8}" name="Upper bounds of outliners" dataDxfId="27">
+      <calculatedColumnFormula>H9+(1.5*H12)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1687,21 +5214,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C53C29-E11E-6247-989C-627C207B79EF}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="35.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="3"/>
   </cols>
@@ -1723,7 +5250,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -1756,7 +5283,7 @@
         <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1841,7 +5368,7 @@
         <v>30</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1923,10 +5450,10 @@
         <v>29</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -2015,7 +5542,7 @@
         <v>-1.0486415019676645</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" s="2"/>
     </row>
@@ -2065,13 +5592,17 @@
         <v>0.72871697594363127</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I17" s="3">
+        <f>SUBTOTAL(104,Table16[Outliners in Bonus])</f>
+        <v>0.90645282373476088</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19"/>
     </row>
   </sheetData>
@@ -2079,15 +5610,25 @@
     <mergeCell ref="G1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>3800</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>7600</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I16">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C11">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2096,10 +5637,543 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E11">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Excellent">
+      <formula>NOT(ISERROR(SEARCH("Excellent",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="15">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54BD9D3-2A20-E943-9CB3-28E10CF00B03}">
+  <dimension ref="A3:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8">
+        <v>40800</v>
+      </c>
+      <c r="C4" s="8">
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8">
+        <v>7000</v>
+      </c>
+      <c r="C5" s="8">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8">
+        <v>7000</v>
+      </c>
+      <c r="C6" s="8">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8">
+        <v>21600</v>
+      </c>
+      <c r="C7" s="8">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="8">
+        <v>7600</v>
+      </c>
+      <c r="C8" s="8">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="8">
+        <v>6800</v>
+      </c>
+      <c r="C9" s="8">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8">
+        <v>7200</v>
+      </c>
+      <c r="C10" s="8">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8">
+        <v>12200</v>
+      </c>
+      <c r="C11" s="8">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="8">
+        <v>6000</v>
+      </c>
+      <c r="C12" s="8">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="8">
+        <v>6200</v>
+      </c>
+      <c r="C13" s="8">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="8">
+        <v>17200</v>
+      </c>
+      <c r="C14" s="8">
+        <v>66500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8">
+        <v>6400</v>
+      </c>
+      <c r="C15" s="8">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="8">
+        <v>6400</v>
+      </c>
+      <c r="C16" s="8">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8">
+        <v>10800</v>
+      </c>
+      <c r="C17" s="8">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="8">
+        <v>5800</v>
+      </c>
+      <c r="C18" s="8">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="8">
+        <v>5000</v>
+      </c>
+      <c r="C19" s="8">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="8">
+        <v>3800</v>
+      </c>
+      <c r="C20" s="8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="8">
+        <v>3800</v>
+      </c>
+      <c r="C21" s="8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8">
+        <v>3800</v>
+      </c>
+      <c r="C22" s="8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="8">
+        <v>61800</v>
+      </c>
+      <c r="C23" s="8">
+        <v>237500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75476A40-9269-A24C-B1A6-CDB8505734A7}">
+  <dimension ref="A3:A51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>-2.1150565887144421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>1067.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>1125.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>7040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>-0.15996226301201663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>6950</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>-1.0486415019676645</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>-0.33769811080314621</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>0.19550943257024256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <v>0.55098112815250178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <v>0.72871697594363127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <v>0.90645282373476088</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Statistics Project.xlsx
+++ b/Statistics Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vamsi/Documents/Education/Data Analyst Journey/Git Hub Projects/Statistics Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81C1AD7-A852-D245-B35E-91471B3A128B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58663B0-55BB-7B44-B5C6-4FEFADBC0B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="17380" xr2:uid="{E4D2538B-25EE-BE4A-9F47-B3746137F136}"/>
   </bookViews>
@@ -19,8 +19,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
-    <pivotCache cacheId="13" r:id="rId5"/>
+    <pivotCache cacheId="14" r:id="rId4"/>
+    <pivotCache cacheId="15" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,8 +41,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={AFED859F-450B-074B-97AA-59517C8F7787}</author>
+    <author>tc={B2DAA12F-0CA5-AA4F-A764-52FD709416A4}</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{AFED859F-450B-074B-97AA-59517C8F7787}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Average bonus</t>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="1" shapeId="0" xr:uid="{B2DAA12F-0CA5-AA4F-A764-52FD709416A4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Highs &amp; lows in a data, Example: More employee bonus but much more CEO bonus where the statement in real time is true so we can say data is rightly Skeweed.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -175,12 +202,21 @@
   <si>
     <t>(blank)</t>
   </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,6 +245,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -230,16 +272,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -249,18 +288,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="68">
     <dxf>
       <font>
         <b val="0"/>
@@ -301,51 +342,79 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -387,7 +456,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -444,7 +513,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -460,6 +529,30 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -501,6 +594,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -957,6 +1069,44 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1033,7 +1183,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1071,7 +1221,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1109,6 +1259,63 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1167,6 +1374,44 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -2421,6 +2666,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-EDA1-B64A-860A-FFD8F6416C5A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2440,6 +2690,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-EDA1-B64A-860A-FFD8F6416C5A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2459,6 +2714,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-EDA1-B64A-860A-FFD8F6416C5A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2478,6 +2738,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-EDA1-B64A-860A-FFD8F6416C5A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2497,6 +2762,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-EDA1-B64A-860A-FFD8F6416C5A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -2516,6 +2786,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-EDA1-B64A-860A-FFD8F6416C5A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2537,6 +2812,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-EDA1-B64A-860A-FFD8F6416C5A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -2558,6 +2838,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-EDA1-B64A-860A-FFD8F6416C5A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4039,6 +4324,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Venkata-Manikantanagakrishnavamsi, Majeti" id="{0E84C604-5303-FA49-8EEF-26F787B11D0D}" userId="S::MVenkata-Manikantanagakrishnavamsi_GPS@nec.edu::c9423c89-7320-4536-942e-6a8e5d5e220d" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vamsi Majeti" refreshedDate="45924.335678240743" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{00D6EB3E-E9F4-9645-916D-23FE352E76E8}">
   <cacheSource type="worksheet">
@@ -4328,7 +4619,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D006D560-107B-F04D-8238-375387621550}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D006D560-107B-F04D-8238-375387621550}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -4461,7 +4752,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A2341D8-3E0E-AD42-AE4B-C1E4A5357E71}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A2341D8-3E0E-AD42-AE4B-C1E4A5357E71}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -4690,26 +4981,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{637366D5-0B6A-A94B-BFEA-A43342649EEC}" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{637366D5-0B6A-A94B-BFEA-A43342649EEC}" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
   <autoFilter ref="A1:E11" xr:uid="{637366D5-0B6A-A94B-BFEA-A43342649EEC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{21B3152A-73C6-174D-8D33-545DB128927D}" name="Name" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{EE637160-5FE4-564B-8B0B-D8D2E7D52165}" name="Department" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{50A74392-99C3-7E4D-8E3E-380B8E25549E}" name="Monthly Sales" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{253CEE57-CF77-9A43-99DD-4E7BF5A60EF6}" name="Bonus" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{583552C9-1E62-F244-B6C9-971AC1A74C6F}" name="Feedback" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{21B3152A-73C6-174D-8D33-545DB128927D}" name="Name" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{EE637160-5FE4-564B-8B0B-D8D2E7D52165}" name="Department" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{50A74392-99C3-7E4D-8E3E-380B8E25549E}" name="Monthly Sales" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{253CEE57-CF77-9A43-99DD-4E7BF5A60EF6}" name="Bonus" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{583552C9-1E62-F244-B6C9-971AC1A74C6F}" name="Feedback" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{13F9E659-77E6-244F-AED2-B9F00B683D71}" name="Table10" displayName="Table10" ref="I5:I6" totalsRowShown="0" headerRowDxfId="22" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{13F9E659-77E6-244F-AED2-B9F00B683D71}" name="Table10" displayName="Table10" ref="I5:I6" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="I5:I6" xr:uid="{13F9E659-77E6-244F-AED2-B9F00B683D71}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00F1F565-DE6E-A94C-B8A2-EA759D5959FA}" name="Lower bounds of outliners" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{00F1F565-DE6E-A94C-B8A2-EA759D5959FA}" name="Lower bounds of outliners" dataDxfId="31">
       <calculatedColumnFormula>H3-(1.5*H12)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4718,12 +5009,12 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2FBFC2A8-511B-6744-8B2B-5D2A07CB66B8}" name="Table12" displayName="Table12" ref="J2:J3" totalsRowShown="0" headerRowDxfId="19" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2FBFC2A8-511B-6744-8B2B-5D2A07CB66B8}" name="Table12" displayName="Table12" ref="J2:J3" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="J2:J3" xr:uid="{2FBFC2A8-511B-6744-8B2B-5D2A07CB66B8}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{F80E5B56-9957-AC44-9E29-643A1604E0BC}" name="Standard Deviation P" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{F80E5B56-9957-AC44-9E29-643A1604E0BC}" name="Standard Deviation P" dataDxfId="28">
       <calculatedColumnFormula>ROUND(_xlfn.STDEV.P(D2:D11),2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4732,12 +5023,12 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{AB1842D7-D334-BB40-A224-A837FAAAF825}" name="Table13" displayName="Table13" ref="J5:J6" totalsRowShown="0" headerRowDxfId="16" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{AB1842D7-D334-BB40-A224-A837FAAAF825}" name="Table13" displayName="Table13" ref="J5:J6" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="J5:J6" xr:uid="{AB1842D7-D334-BB40-A224-A837FAAAF825}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{6AE91F1C-6D92-6E4A-AE38-A299FA456268}" name="Standard Deviation S" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{6AE91F1C-6D92-6E4A-AE38-A299FA456268}" name="Standard Deviation S" dataDxfId="25">
       <calculatedColumnFormula>ROUND(_xlfn.STDEV.S(D2:D11),2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4746,12 +5037,12 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CA69120F-1711-B948-B1CC-DB4FE4DF4BAC}" name="Table14" displayName="Table14" ref="J8:J9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CA69120F-1711-B948-B1CC-DB4FE4DF4BAC}" name="Table14" displayName="Table14" ref="J8:J9" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="J8:J9" xr:uid="{CA69120F-1711-B948-B1CC-DB4FE4DF4BAC}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E589F6A1-DB11-E643-A30F-341E1A9E0E76}" name="80th Percentile bonus" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{E589F6A1-DB11-E643-A30F-341E1A9E0E76}" name="80th Percentile bonus" dataDxfId="22">
       <calculatedColumnFormula>_xlfn.PERCENTILE.INC(D2:D11, 0.8)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4760,12 +5051,12 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{EE52EA09-C106-4B4A-84CF-A186A49146AB}" name="Table15" displayName="Table15" ref="J11:J12" totalsRowShown="0" headerRowDxfId="10" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{EE52EA09-C106-4B4A-84CF-A186A49146AB}" name="Table15" displayName="Table15" ref="J11:J12" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="J11:J12" xr:uid="{EE52EA09-C106-4B4A-84CF-A186A49146AB}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{58D0566C-2CAC-434B-B8DD-81EA72608347}" name="Percentile rank for bonus of 6400" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{58D0566C-2CAC-434B-B8DD-81EA72608347}" name="Percentile rank for bonus of 6400" dataDxfId="19">
       <calculatedColumnFormula>ROUND(_xlfn.PERCENTRANK.INC(D2:D11, 6400),2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4774,10 +5065,10 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E322CE26-A7AD-3442-954B-54C6994026F9}" name="Table16" displayName="Table16" ref="I8:I17" totalsRowCount="1" headerRowDxfId="8" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E322CE26-A7AD-3442-954B-54C6994026F9}" name="Table16" displayName="Table16" ref="I8:I17" totalsRowCount="1" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="I8:I16" xr:uid="{E322CE26-A7AD-3442-954B-54C6994026F9}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{9BBCAAD1-96BE-5845-AA49-CCACBB1A6657}" name="Outliners in Bonus" totalsRowFunction="max" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="1" xr3:uid="{9BBCAAD1-96BE-5845-AA49-CCACBB1A6657}" name="Outliners in Bonus" totalsRowFunction="max" dataDxfId="16" totalsRowDxfId="15">
       <calculatedColumnFormula>(D2-G$3)/_xlfn.STDEV.S(D$2:D$11)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4785,13 +5076,69 @@
 </table>
 </file>
 
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FB7B2E65-6B0A-2B4A-98BD-5F06AD837D18}" name="Table11" displayName="Table11" ref="G14:G15" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
+  <autoFilter ref="G14:G15" xr:uid="{FB7B2E65-6B0A-2B4A-98BD-5F06AD837D18}">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{15F07BF9-D45C-2E4A-9C3F-BEF13D8C9A04}" name="Skewness" dataDxfId="11">
+      <calculatedColumnFormula>SKEW(Table1[Monthly Sales])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{70F2946B-97FA-3E45-BBFC-E59CB3205AB7}" name="Table17" displayName="Table17" ref="G11:G12" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
+  <autoFilter ref="G11:G12" xr:uid="{70F2946B-97FA-3E45-BBFC-E59CB3205AB7}">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{47450303-F065-9F48-A7B3-CF246F66C14C}" name="Mode Range" dataDxfId="8">
+      <calculatedColumnFormula>_xlfn.MODE.SNGL(D2:D11)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{6A56BE95-CEF1-0B4B-B91C-F16492A66F64}" name="Table18" displayName="Table18" ref="J14:J15" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+  <autoFilter ref="J14:J15" xr:uid="{6A56BE95-CEF1-0B4B-B91C-F16492A66F64}">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{977CDF78-370A-1B48-A6F0-CE623974DAE4}" name="Kurtosis" dataDxfId="5">
+      <calculatedColumnFormula>KURT(Table1[Bonus])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{175E3204-4B3A-B441-980D-894977340A82}" name="Table19" displayName="Table19" ref="J17:J18" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="J17:J18" xr:uid="{175E3204-4B3A-B441-980D-894977340A82}">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{3B492E09-B1AF-4247-AF14-28779FC18DEA}" name="Correlation" dataDxfId="2">
+      <calculatedColumnFormula>CORREL(Table1[Monthly Sales],Table1[Bonus])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{71D1CACF-46E6-2041-B6C7-2FD33D8C4849}" name="Table2" displayName="Table2" ref="G2:G3" headerRowDxfId="49" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{71D1CACF-46E6-2041-B6C7-2FD33D8C4849}" name="Table2" displayName="Table2" ref="G2:G3" headerRowDxfId="60" dataDxfId="59">
   <autoFilter ref="G2:G3" xr:uid="{71D1CACF-46E6-2041-B6C7-2FD33D8C4849}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{95CF0BF4-D942-3546-9CB9-AF449EDE2973}" name="Average Bonus" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="45">
+    <tableColumn id="1" xr3:uid="{95CF0BF4-D942-3546-9CB9-AF449EDE2973}" name="Average Bonus" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="57">
       <calculatedColumnFormula>AVERAGE(D2:D12)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4800,12 +5147,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E8E98D4-81A4-6044-8278-7788C1F6338E}" name="Table3" displayName="Table3" ref="G5:G6" headerRowDxfId="46" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E8E98D4-81A4-6044-8278-7788C1F6338E}" name="Table3" displayName="Table3" ref="G5:G6" headerRowDxfId="56" dataDxfId="55">
   <autoFilter ref="G5:G6" xr:uid="{8E8E98D4-81A4-6044-8278-7788C1F6338E}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{0BAB3E86-7773-DB4C-B11A-BDFF216D64B1}" name="Median Bonus" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="44">
+    <tableColumn id="1" xr3:uid="{0BAB3E86-7773-DB4C-B11A-BDFF216D64B1}" name="Median Bonus" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53">
       <calculatedColumnFormula>MEDIAN(D2:D11)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4814,10 +5161,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8AB8E6C0-60A5-5148-BDB1-DED3E12B73E8}" name="Table4" displayName="Table4" ref="G8:G9" headerRowDxfId="41" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8AB8E6C0-60A5-5148-BDB1-DED3E12B73E8}" name="Table4" displayName="Table4" ref="G8:G9" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="G8:G9" xr:uid="{8AB8E6C0-60A5-5148-BDB1-DED3E12B73E8}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{22C39EFB-0D04-8F4E-B534-291543F7CEF9}" name="Bonus Range" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="40">
+    <tableColumn id="1" xr3:uid="{22C39EFB-0D04-8F4E-B534-291543F7CEF9}" name="Bonus Range" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49">
       <calculatedColumnFormula>MAX(D2:D11)-MIN(D2:D11)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4826,12 +5173,12 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9EF8A1CC-3671-4B44-BB50-D96FFF45E33F}" name="Table5" displayName="Table5" ref="H2:H3" totalsRowShown="0" headerRowDxfId="37" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9EF8A1CC-3671-4B44-BB50-D96FFF45E33F}" name="Table5" displayName="Table5" ref="H2:H3" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="H2:H3" xr:uid="{9EF8A1CC-3671-4B44-BB50-D96FFF45E33F}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{52C21250-FEC6-534D-B40F-153B8DE3F588}" name="Q1" dataDxfId="39">
+    <tableColumn id="1" xr3:uid="{52C21250-FEC6-534D-B40F-153B8DE3F588}" name="Q1" dataDxfId="46">
       <calculatedColumnFormula>_xlfn.QUARTILE.INC(D2:D11,1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4840,12 +5187,12 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBC3A5D8-66E5-9644-8396-3469378CDC49}" name="Table6" displayName="Table6" ref="H5:H6" totalsRowShown="0" headerRowDxfId="34" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBC3A5D8-66E5-9644-8396-3469378CDC49}" name="Table6" displayName="Table6" ref="H5:H6" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="H5:H6" xr:uid="{DBC3A5D8-66E5-9644-8396-3469378CDC49}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{8A7F582E-D428-6447-BEF0-2A76532074E5}" name="Q2" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{8A7F582E-D428-6447-BEF0-2A76532074E5}" name="Q2" dataDxfId="43">
       <calculatedColumnFormula>_xlfn.QUARTILE.INC(D2:D11,2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4854,12 +5201,12 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CE644ED4-ACCF-BA4D-A72D-903F48C5C6F5}" name="Table7" displayName="Table7" ref="H8:H9" totalsRowShown="0" headerRowDxfId="31" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CE644ED4-ACCF-BA4D-A72D-903F48C5C6F5}" name="Table7" displayName="Table7" ref="H8:H9" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="H8:H9" xr:uid="{CE644ED4-ACCF-BA4D-A72D-903F48C5C6F5}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D7A8A560-FAA8-BD47-ABD7-4817EBAB3527}" name="Q3" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{D7A8A560-FAA8-BD47-ABD7-4817EBAB3527}" name="Q3" dataDxfId="40">
       <calculatedColumnFormula>_xlfn.QUARTILE.INC(D2:D11,3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4868,12 +5215,12 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DD2D2CBB-6499-924E-91A5-7789E4C5E0D5}" name="Table8" displayName="Table8" ref="H11:H12" totalsRowShown="0" headerRowDxfId="28" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DD2D2CBB-6499-924E-91A5-7789E4C5E0D5}" name="Table8" displayName="Table8" ref="H11:H12" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="H11:H12" xr:uid="{DD2D2CBB-6499-924E-91A5-7789E4C5E0D5}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{7C712CA8-9B60-9B46-B955-1E50EF1C14C4}" name="IQR" dataDxfId="30">
+    <tableColumn id="1" xr3:uid="{7C712CA8-9B60-9B46-B955-1E50EF1C14C4}" name="IQR" dataDxfId="37">
       <calculatedColumnFormula>H9-H3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4882,12 +5229,12 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EA7BC62F-F1E1-B64B-A32D-DFEB788F8CF2}" name="Table9" displayName="Table9" ref="I2:I3" totalsRowShown="0" headerRowDxfId="25" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EA7BC62F-F1E1-B64B-A32D-DFEB788F8CF2}" name="Table9" displayName="Table9" ref="I2:I3" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="I2:I3" xr:uid="{EA7BC62F-F1E1-B64B-A32D-DFEB788F8CF2}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{300B4C4E-1B2F-EE4C-94E5-1A9CCBB6AAB8}" name="Upper bounds of outliners" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{300B4C4E-1B2F-EE4C-94E5-1A9CCBB6AAB8}" name="Upper bounds of outliners" dataDxfId="34">
       <calculatedColumnFormula>H9+(1.5*H12)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5210,12 +5557,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G2" dT="2025-09-24T03:08:04.66" personId="{0E84C604-5303-FA49-8EEF-26F787B11D0D}" id="{AFED859F-450B-074B-97AA-59517C8F7787}">
+    <text>Average bonus</text>
+  </threadedComment>
+  <threadedComment ref="G14" dT="2025-09-24T03:09:41.52" personId="{0E84C604-5303-FA49-8EEF-26F787B11D0D}" id="{B2DAA12F-0CA5-AA4F-A764-52FD709416A4}">
+    <text>Highs &amp; lows in a data, Example: More employee bonus but much more CEO bonus where the statement in real time is true so we can say data is rightly Skeweed.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C53C29-E11E-6247-989C-627C207B79EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C53C29-E11E-6247-989C-627C207B79EF}">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -5249,12 +5607,12 @@
       <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -5573,16 +5931,30 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14"/>
+      <c r="G14" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="I14" s="3">
         <f t="shared" si="0"/>
         <v>0.19550943257024256</v>
       </c>
+      <c r="J14" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15"/>
+      <c r="G15" s="3">
+        <f>SKEW(Table1[Monthly Sales])</f>
+        <v>-0.87745598282388337</v>
+      </c>
       <c r="I15" s="3">
         <f t="shared" si="0"/>
         <v>-0.33769811080314621</v>
+      </c>
+      <c r="J15" s="3">
+        <f>KURT(Table1[Bonus])</f>
+        <v>1.0780860587810395</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -5592,29 +5964,51 @@
         <v>0.72871697594363127</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="I17" s="3">
         <f>SUBTOTAL(104,Table16[Outliners in Bonus])</f>
         <v>0.90645282373476088</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="3">
+        <f>CORREL(Table1[Monthly Sales],Table1[Bonus])</f>
+        <v>0.96559008857624051</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="C2:C11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>3800</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>7600</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E11">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Excellent">
+      <formula>NOT(ISERROR(SEARCH("Excellent",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I16">
@@ -5627,25 +6021,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C11">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E11">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Excellent">
-      <formula>NOT(ISERROR(SEARCH("Excellent",E2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="15">
-    <tablePart r:id="rId2"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="19">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
@@ -5660,6 +6039,11 @@
     <tablePart r:id="rId14"/>
     <tablePart r:id="rId15"/>
     <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5680,7 +6064,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B3" t="s">
@@ -5691,222 +6075,222 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4">
         <v>40800</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>156000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>7000</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>25000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>7000</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>25000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>21600</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>84000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>7600</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>29000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9">
         <v>6800</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>28000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10">
         <v>7200</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10">
         <v>27000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11">
         <v>12200</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11">
         <v>47000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12">
         <v>6000</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12">
         <v>23000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13">
         <v>6200</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13">
         <v>24000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14">
         <v>17200</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14">
         <v>66500</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15">
         <v>6400</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15">
         <v>26000</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16">
         <v>6400</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16">
         <v>26000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17">
         <v>10800</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17">
         <v>40500</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18">
         <v>5800</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18">
         <v>21000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19">
         <v>5000</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19">
         <v>19500</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20">
         <v>3800</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20">
         <v>15000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21">
         <v>3800</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21">
         <v>15000</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22">
         <v>3800</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22">
         <v>15000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23">
         <v>61800</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23">
         <v>237500</v>
       </c>
     </row>
@@ -5929,247 +6313,247 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>-2.1150565887144421</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <v>1100</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>1067.52</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>8600</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+      <c r="A10" s="7">
         <v>5850</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <v>6180</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>1125.27</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>4200</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
+      <c r="A14" s="7">
         <v>6300</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
+      <c r="A15" s="8">
         <v>6300</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>7040</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>-0.15996226301201663</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
+      <c r="A18" s="7">
         <v>6950</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
+      <c r="A19" s="8">
         <v>3800</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>-1.0486415019676645</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>-0.33769811080314621</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>0.19550943257024256</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>0.55098112815250178</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>0.72871697594363127</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>0.90645282373476088</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/Statistics Project.xlsx
+++ b/Statistics Project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vamsi/Documents/Education/Data Analyst Journey/Git Hub Projects/Statistics Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vamsi/Documents/Education/Data Analyst Journey/Git Hub Projects/Excel - Statistics Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58663B0-55BB-7B44-B5C6-4FEFADBC0B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB2D849-D53C-BF47-9FAD-99DD3F626333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="17380" xr2:uid="{E4D2538B-25EE-BE4A-9F47-B3746137F136}"/>
   </bookViews>
@@ -17,10 +17,21 @@
     <sheet name="Pivot table for table 1" sheetId="2" r:id="rId2"/>
     <sheet name="Pivot table for statistics" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.4" hidden="1">Data!$A$1:$B$11</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Data!$A$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Data!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Data!$D$2:$D$11</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Data!$E$2:$E$11</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Data!$A$1:$B$11</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Data!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Data!$D$2:$D$11</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Data!$E$2:$E$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId4"/>
-    <pivotCache cacheId="15" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,11 +55,47 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={80CFEEE9-D8EF-9C43-95BD-C1F5013B3B65}</author>
+    <author>tc={240EFF50-BAF8-1049-B42B-9B47739A9444}</author>
+    <author>tc={8849059E-2D9A-7540-BFEB-1AB4C30182C6}</author>
     <author>tc={AFED859F-450B-074B-97AA-59517C8F7787}</author>
+    <author>tc={1DF7A89A-FED7-0A46-A6A2-0079EE4CE5DA}</author>
+    <author>tc={02C5CA4C-BFBC-9E4F-BDAE-0D8424758E7E}</author>
+    <author>tc={27F12876-CE35-EE48-8A28-9AF4872001E1}</author>
+    <author>tc={7E64DDC9-C65A-9F4B-AA55-7EFDB993AD61}</author>
+    <author>tc={BD3F529D-04F5-1643-8856-D984BF12E86A}</author>
+    <author>tc={31E107CF-3BCC-0942-9E8A-F40F43FE60C6}</author>
+    <author>tc={EAC19576-1126-8840-917C-1A9F79C48050}</author>
     <author>tc={B2DAA12F-0CA5-AA4F-A764-52FD709416A4}</author>
+    <author>tc={DF3E9125-8613-7C49-959F-5E6B2F7230FA}</author>
+    <author>tc={E8E3752C-E96B-BB4C-803B-7333EFE37618}</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{AFED859F-450B-074B-97AA-59517C8F7787}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{80CFEEE9-D8EF-9C43-95BD-C1F5013B3B65}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    All numbers are marked here using Conditional formatting from highest to lowest.</t>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="1" shapeId="0" xr:uid="{240EFF50-BAF8-1049-B42B-9B47739A9444}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Only highest &amp; lowest number is marked using Conditional column.</t>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="2" shapeId="0" xr:uid="{8849059E-2D9A-7540-BFEB-1AB4C30182C6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Excellent performers are only marked.</t>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="3" shapeId="0" xr:uid="{AFED859F-450B-074B-97AA-59517C8F7787}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +103,63 @@
     Average bonus</t>
       </text>
     </comment>
-    <comment ref="G14" authorId="1" shapeId="0" xr:uid="{B2DAA12F-0CA5-AA4F-A764-52FD709416A4}">
+    <comment ref="I2" authorId="4" shapeId="0" xr:uid="{1DF7A89A-FED7-0A46-A6A2-0079EE4CE5DA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q1 - (1.5 * IQR)</t>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="5" shapeId="0" xr:uid="{02C5CA4C-BFBC-9E4F-BDAE-0D8424758E7E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A function that is used to calculate standard deviation of an entire population.</t>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="6" shapeId="0" xr:uid="{27F12876-CE35-EE48-8A28-9AF4872001E1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Middle value among the wide range of numbers.</t>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="7" shapeId="0" xr:uid="{7E64DDC9-C65A-9F4B-AA55-7EFDB993AD61}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q3 + (1.5 * IQR)</t>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="8" shapeId="0" xr:uid="{BD3F529D-04F5-1643-8856-D984BF12E86A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A function estimates the standard deviation for a sample of a population.</t>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="9" shapeId="0" xr:uid="{31E107CF-3BCC-0942-9E8A-F40F43FE60C6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The range of bonus can be calculated using maximum - minus minimum values.</t>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="10" shapeId="0" xr:uid="{EAC19576-1126-8840-917C-1A9F79C48050}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Returning the specific percentile.</t>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="11" shapeId="0" xr:uid="{B2DAA12F-0CA5-AA4F-A764-52FD709416A4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,12 +167,28 @@
     Highs &amp; lows in a data, Example: More employee bonus but much more CEO bonus where the statement in real time is true so we can say data is rightly Skeweed.</t>
       </text>
     </comment>
+    <comment ref="J14" authorId="12" shapeId="0" xr:uid="{DF3E9125-8613-7C49-959F-5E6B2F7230FA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Used to calculate sharp lines (or) dead lines in a graph.</t>
+      </text>
+    </comment>
+    <comment ref="J17" authorId="13" shapeId="0" xr:uid="{E8E3752C-E96B-BB4C-803B-7333EFE37618}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Checks weather CEO is paid high with high bonus same for the rest of the employees.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -211,16 +330,19 @@
   <si>
     <t>Correlation</t>
   </si>
+  <si>
+    <t>Aggregations:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -228,7 +350,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -251,6 +373,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -272,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -297,11 +425,119 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="68">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -453,106 +689,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1675,23 +1811,16 @@
               <a:gsLst>
                 <a:gs pos="0">
                   <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
+                    <a:tint val="96000"/>
+                    <a:satMod val="100000"/>
+                    <a:lumMod val="104000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="50000">
+                <a:gs pos="78000">
                   <a:schemeClr val="accent1">
+                    <a:shade val="100000"/>
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
@@ -1703,10 +1832,19 @@
             <a:effectLst>
               <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
                 <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
+                  <a:alpha val="48000"/>
                 </a:srgbClr>
               </a:outerShdw>
             </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="50800" h="25400"/>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1883,23 +2021,16 @@
               <a:gsLst>
                 <a:gs pos="0">
                   <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
+                    <a:tint val="96000"/>
+                    <a:satMod val="100000"/>
+                    <a:lumMod val="104000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="50000">
+                <a:gs pos="78000">
                   <a:schemeClr val="accent2">
+                    <a:shade val="100000"/>
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
@@ -1911,10 +2042,19 @@
             <a:effectLst>
               <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
                 <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
+                  <a:alpha val="48000"/>
                 </a:srgbClr>
               </a:outerShdw>
             </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="50800" h="25400"/>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2091,23 +2231,16 @@
               <a:gsLst>
                 <a:gs pos="0">
                   <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
+                    <a:tint val="96000"/>
+                    <a:satMod val="100000"/>
+                    <a:lumMod val="104000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="50000">
+                <a:gs pos="78000">
                   <a:schemeClr val="accent3">
+                    <a:shade val="100000"/>
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
@@ -2119,10 +2252,19 @@
             <a:effectLst>
               <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
                 <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
+                  <a:alpha val="48000"/>
                 </a:srgbClr>
               </a:outerShdw>
             </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="50800" h="25400"/>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2922,28 +3064,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-0.15996226301201663</c:v>
+                  <c:v>-0.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90645282373476088</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.0486415019676645</c:v>
+                  <c:v>-1.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.1150565887144421</c:v>
+                  <c:v>-2.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55098112815250178</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.19550943257024256</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.33769811080314621</c:v>
+                  <c:v>-0.34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.72871697594363127</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3070,6 +3212,476 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>'Feedback': Excellent accounts for the majority of 'Bonus'.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9A40-4F46-A2B9-CC14A28F5960}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9A40-4F46-A2B9-CC14A28F5960}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9A40-4F46-A2B9-CC14A28F5960}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:sysClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Excellent</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Okay</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Poor</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>40800</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>17200</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3800</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9A40-4F46-A2B9-CC14A28F5960}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3150,6 +3762,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
   <cs:axisTitle>
@@ -3647,6 +4299,607 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4321,6 +5574,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2235200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3" descr="Chart type: Doughnut. 'Feedback': Excellent accounts for the majority of 'Bonus'.&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7771390-6E56-4241-81BF-27ACAC1711DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4331,56 +5622,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vamsi Majeti" refreshedDate="45924.335678240743" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{00D6EB3E-E9F4-9645-916D-23FE352E76E8}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Table1"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="Name" numFmtId="0">
-      <sharedItems count="10">
-        <s v="Aisha"/>
-        <s v="Rahul"/>
-        <s v="Neha"/>
-        <s v="Simran"/>
-        <s v="David"/>
-        <s v="Riya"/>
-        <s v="Karan"/>
-        <s v="Deepa"/>
-        <s v="Carlos"/>
-        <s v="Aryan"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Department" numFmtId="0">
-      <sharedItems count="4">
-        <s v="Tech"/>
-        <s v="Sales"/>
-        <s v="HR"/>
-        <s v="Finance"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Monthly Sales" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="15000" maxValue="29000"/>
-    </cacheField>
-    <cacheField name="Bonus" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3800" maxValue="7600"/>
-    </cacheField>
-    <cacheField name="Feedback" numFmtId="0">
-      <sharedItems count="3">
-        <s v="Excellent"/>
-        <s v="Okay"/>
-        <s v="Poor"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vamsi Majeti" refreshedDate="45924.335988425926" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="15" xr:uid="{18E1B032-C7BB-8143-8EDB-F3A699C9CAA9}">
   <cacheSource type="worksheet">
     <worksheetSource ref="G2:J17" sheet="Data"/>
@@ -4448,82 +5689,57 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="23000"/>
-    <n v="6000"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="27000"/>
-    <n v="7200"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="19500"/>
-    <n v="5000"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="15000"/>
-    <n v="3800"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="28000"/>
-    <n v="6800"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="3"/>
-    <n v="26000"/>
-    <n v="6400"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="2"/>
-    <n v="21000"/>
-    <n v="5800"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="3"/>
-    <n v="25000"/>
-    <n v="7000"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="1"/>
-    <n v="29000"/>
-    <n v="7600"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="0"/>
-    <n v="24000"/>
-    <n v="6200"/>
-    <x v="0"/>
-  </r>
-</pivotCacheRecords>
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Vamsi Majeti" refreshedDate="45924.684320717592" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{00D6EB3E-E9F4-9645-916D-23FE352E76E8}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Aisha"/>
+        <s v="Rahul"/>
+        <s v="Neha"/>
+        <s v="Simran"/>
+        <s v="David"/>
+        <s v="Riya"/>
+        <s v="Karan"/>
+        <s v="Deepa"/>
+        <s v="Carlos"/>
+        <s v="Aryan"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Department" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Tech"/>
+        <s v="Sales"/>
+        <s v="HR"/>
+        <s v="Finance"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Monthly Sales" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="15000" maxValue="29000"/>
+    </cacheField>
+    <cacheField name="Bonus" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3800" maxValue="7600"/>
+    </cacheField>
+    <cacheField name="Feedback" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Excellent"/>
+        <s v="Okay"/>
+        <s v="Poor"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="15">
   <r>
     <x v="0"/>
@@ -4618,8 +5834,83 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="23000"/>
+    <n v="6000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="27000"/>
+    <n v="7200"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="19500"/>
+    <n v="5000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="15000"/>
+    <n v="3800"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="28000"/>
+    <n v="6800"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="26000"/>
+    <n v="6400"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="21000"/>
+    <n v="5800"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="25000"/>
+    <n v="7000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="29000"/>
+    <n v="7600"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="24000"/>
+    <n v="6200"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D006D560-107B-F04D-8238-375387621550}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D006D560-107B-F04D-8238-375387621550}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -4752,7 +6043,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A2341D8-3E0E-AD42-AE4B-C1E4A5357E71}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A2341D8-3E0E-AD42-AE4B-C1E4A5357E71}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -5066,24 +6357,26 @@
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E322CE26-A7AD-3442-954B-54C6994026F9}" name="Table16" displayName="Table16" ref="I8:I17" totalsRowCount="1" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="I8:I16" xr:uid="{E322CE26-A7AD-3442-954B-54C6994026F9}"/>
+  <autoFilter ref="I8:I16" xr:uid="{E322CE26-A7AD-3442-954B-54C6994026F9}">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{9BBCAAD1-96BE-5845-AA49-CCACBB1A6657}" name="Outliners in Bonus" totalsRowFunction="max" dataDxfId="16" totalsRowDxfId="15">
-      <calculatedColumnFormula>(D2-G$3)/_xlfn.STDEV.S(D$2:D$11)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{9BBCAAD1-96BE-5845-AA49-CCACBB1A6657}" name="Outliners in Bonus" totalsRowFunction="max" dataDxfId="0" totalsRowDxfId="1">
+      <calculatedColumnFormula>ROUND((D2-G$3)/_xlfn.STDEV.S(D$2:D$11),2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium24" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium24" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FB7B2E65-6B0A-2B4A-98BD-5F06AD837D18}" name="Table11" displayName="Table11" ref="G14:G15" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FB7B2E65-6B0A-2B4A-98BD-5F06AD837D18}" name="Table11" displayName="Table11" ref="G14:G15" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="G14:G15" xr:uid="{FB7B2E65-6B0A-2B4A-98BD-5F06AD837D18}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{15F07BF9-D45C-2E4A-9C3F-BEF13D8C9A04}" name="Skewness" dataDxfId="11">
-      <calculatedColumnFormula>SKEW(Table1[Monthly Sales])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{15F07BF9-D45C-2E4A-9C3F-BEF13D8C9A04}" name="Skewness" dataDxfId="14">
+      <calculatedColumnFormula>ROUND(SKEW(Table1[Monthly Sales]),2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -5091,12 +6384,12 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{70F2946B-97FA-3E45-BBFC-E59CB3205AB7}" name="Table17" displayName="Table17" ref="G11:G12" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{70F2946B-97FA-3E45-BBFC-E59CB3205AB7}" name="Table17" displayName="Table17" ref="G11:G12" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="G11:G12" xr:uid="{70F2946B-97FA-3E45-BBFC-E59CB3205AB7}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{47450303-F065-9F48-A7B3-CF246F66C14C}" name="Mode Range" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{47450303-F065-9F48-A7B3-CF246F66C14C}" name="Mode Range" dataDxfId="11">
       <calculatedColumnFormula>_xlfn.MODE.SNGL(D2:D11)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5105,13 +6398,13 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{6A56BE95-CEF1-0B4B-B91C-F16492A66F64}" name="Table18" displayName="Table18" ref="J14:J15" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{6A56BE95-CEF1-0B4B-B91C-F16492A66F64}" name="Table18" displayName="Table18" ref="J14:J15" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="J14:J15" xr:uid="{6A56BE95-CEF1-0B4B-B91C-F16492A66F64}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{977CDF78-370A-1B48-A6F0-CE623974DAE4}" name="Kurtosis" dataDxfId="5">
-      <calculatedColumnFormula>KURT(Table1[Bonus])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{977CDF78-370A-1B48-A6F0-CE623974DAE4}" name="Kurtosis" dataDxfId="8">
+      <calculatedColumnFormula>ROUND(KURT(Table1[Bonus]),2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -5119,13 +6412,13 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{175E3204-4B3A-B441-980D-894977340A82}" name="Table19" displayName="Table19" ref="J17:J18" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{175E3204-4B3A-B441-980D-894977340A82}" name="Table19" displayName="Table19" ref="J17:J18" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="J17:J18" xr:uid="{175E3204-4B3A-B441-980D-894977340A82}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{3B492E09-B1AF-4247-AF14-28779FC18DEA}" name="Correlation" dataDxfId="2">
-      <calculatedColumnFormula>CORREL(Table1[Monthly Sales],Table1[Bonus])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{3B492E09-B1AF-4247-AF14-28779FC18DEA}" name="Correlation" dataDxfId="5">
+      <calculatedColumnFormula>ROUND(CORREL(Table1[Monthly Sales],Table1[Bonus]),2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -5162,7 +6455,9 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8AB8E6C0-60A5-5148-BDB1-DED3E12B73E8}" name="Table4" displayName="Table4" ref="G8:G9" headerRowDxfId="52" dataDxfId="51">
-  <autoFilter ref="G8:G9" xr:uid="{8AB8E6C0-60A5-5148-BDB1-DED3E12B73E8}"/>
+  <autoFilter ref="G8:G9" xr:uid="{8AB8E6C0-60A5-5148-BDB1-DED3E12B73E8}">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{22C39EFB-0D04-8F4E-B534-291543F7CEF9}" name="Bonus Range" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49">
       <calculatedColumnFormula>MAX(D2:D11)-MIN(D2:D11)</calculatedColumnFormula>
@@ -5243,9 +6538,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Vapor Trail">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Vapor Trail">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5253,48 +6548,48 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="454545"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="DADADA"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="DF2E28"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="FE801A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="E9BF35"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="81BB42"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="32C7A9"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="4A9BDC"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="F0532B"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="F38B53"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Vapor Trail">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -5318,35 +6613,18 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -5370,26 +6648,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Vapor Trail">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5398,23 +6659,24 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="69000"/>
+                <a:alpha val="100000"/>
+                <a:satMod val="109000"/>
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="52000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="74000"/>
+                <a:satMod val="100000"/>
+                <a:lumMod val="104000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="78000"/>
+                <a:satMod val="100000"/>
+                <a:lumMod val="100000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -5424,23 +6686,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="96000"/>
+                <a:satMod val="100000"/>
+                <a:lumMod val="104000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="78000">
               <a:schemeClr val="phClr">
+                <a:shade val="100000"/>
                 <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -5448,26 +6703,23 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -5476,15 +6728,33 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t"/>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="25400" h="12700"/>
+          </a:sp3d>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="48000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t"/>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="50800" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -5502,16 +6772,16 @@
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
+                <a:shade val="98000"/>
                 <a:satMod val="150000"/>
-                <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
+                <a:shade val="90000"/>
                 <a:satMod val="130000"/>
-                <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
@@ -5527,31 +6797,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Vapor Trail" id="{4FDF2955-7D9C-493C-B9F9-C205151B46CD}" vid="{8F31A783-2159-4870-BC29-2BA7D038EA44}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5559,11 +6809,47 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C2" dT="2025-09-24T10:53:05.14" personId="{0E84C604-5303-FA49-8EEF-26F787B11D0D}" id="{80CFEEE9-D8EF-9C43-95BD-C1F5013B3B65}">
+    <text>All numbers are marked here using Conditional formatting from highest to lowest.</text>
+  </threadedComment>
+  <threadedComment ref="D2" dT="2025-09-24T10:52:04.49" personId="{0E84C604-5303-FA49-8EEF-26F787B11D0D}" id="{240EFF50-BAF8-1049-B42B-9B47739A9444}">
+    <text>Only highest &amp; lowest number is marked using Conditional column.</text>
+  </threadedComment>
+  <threadedComment ref="E2" dT="2025-09-24T10:51:23.54" personId="{0E84C604-5303-FA49-8EEF-26F787B11D0D}" id="{8849059E-2D9A-7540-BFEB-1AB4C30182C6}">
+    <text>Excellent performers are only marked.</text>
+  </threadedComment>
   <threadedComment ref="G2" dT="2025-09-24T03:08:04.66" personId="{0E84C604-5303-FA49-8EEF-26F787B11D0D}" id="{AFED859F-450B-074B-97AA-59517C8F7787}">
     <text>Average bonus</text>
   </threadedComment>
+  <threadedComment ref="I2" dT="2025-09-24T10:45:55.22" personId="{0E84C604-5303-FA49-8EEF-26F787B11D0D}" id="{1DF7A89A-FED7-0A46-A6A2-0079EE4CE5DA}">
+    <text>Q1 - (1.5 * IQR)</text>
+  </threadedComment>
+  <threadedComment ref="J2" dT="2025-09-24T10:47:51.11" personId="{0E84C604-5303-FA49-8EEF-26F787B11D0D}" id="{02C5CA4C-BFBC-9E4F-BDAE-0D8424758E7E}">
+    <text>A function that is used to calculate standard deviation of an entire population.</text>
+  </threadedComment>
+  <threadedComment ref="G5" dT="2025-09-24T10:53:49.31" personId="{0E84C604-5303-FA49-8EEF-26F787B11D0D}" id="{27F12876-CE35-EE48-8A28-9AF4872001E1}">
+    <text>Middle value among the wide range of numbers.</text>
+  </threadedComment>
+  <threadedComment ref="I5" dT="2025-09-24T10:46:09.53" personId="{0E84C604-5303-FA49-8EEF-26F787B11D0D}" id="{7E64DDC9-C65A-9F4B-AA55-7EFDB993AD61}">
+    <text>Q3 + (1.5 * IQR)</text>
+  </threadedComment>
+  <threadedComment ref="J5" dT="2025-09-24T10:48:40.25" personId="{0E84C604-5303-FA49-8EEF-26F787B11D0D}" id="{BD3F529D-04F5-1643-8856-D984BF12E86A}">
+    <text>A function estimates the standard deviation for a sample of a population.</text>
+  </threadedComment>
+  <threadedComment ref="G8" dT="2025-09-24T10:45:05.71" personId="{0E84C604-5303-FA49-8EEF-26F787B11D0D}" id="{31E107CF-3BCC-0942-9E8A-F40F43FE60C6}">
+    <text>The range of bonus can be calculated using maximum - minus minimum values.</text>
+  </threadedComment>
+  <threadedComment ref="J8" dT="2025-09-24T10:49:37.72" personId="{0E84C604-5303-FA49-8EEF-26F787B11D0D}" id="{EAC19576-1126-8840-917C-1A9F79C48050}">
+    <text>Returning the specific percentile.</text>
+  </threadedComment>
   <threadedComment ref="G14" dT="2025-09-24T03:09:41.52" personId="{0E84C604-5303-FA49-8EEF-26F787B11D0D}" id="{B2DAA12F-0CA5-AA4F-A764-52FD709416A4}">
     <text>Highs &amp; lows in a data, Example: More employee bonus but much more CEO bonus where the statement in real time is true so we can say data is rightly Skeweed.</text>
+  </threadedComment>
+  <threadedComment ref="J14" dT="2025-09-24T10:50:36.69" personId="{0E84C604-5303-FA49-8EEF-26F787B11D0D}" id="{DF3E9125-8613-7C49-959F-5E6B2F7230FA}">
+    <text>Used to calculate sharp lines (or) dead lines in a graph.</text>
+  </threadedComment>
+  <threadedComment ref="J17" dT="2025-09-24T10:50:59.59" personId="{0E84C604-5303-FA49-8EEF-26F787B11D0D}" id="{E8E3752C-E96B-BB4C-803B-7333EFE37618}">
+    <text>Checks weather CEO is paid high with high bonus same for the rest of the employees.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -5572,23 +6858,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C53C29-E11E-6247-989C-627C207B79EF}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="35.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="11.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15" style="3" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="35.5703125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -5607,6 +6893,7 @@
       <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="F1" s="12"/>
       <c r="G1" s="9" t="s">
         <v>36</v>
       </c>
@@ -5631,6 +6918,7 @@
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="F2" s="12"/>
       <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
@@ -5660,6 +6948,7 @@
       <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="F3" s="12"/>
       <c r="G3" s="3">
         <f>AVERAGE(D2:D12)</f>
         <v>6180</v>
@@ -5694,10 +6983,11 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -5716,6 +7006,7 @@
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="F5" s="12"/>
       <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
@@ -5745,6 +7036,7 @@
       <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="F6" s="12"/>
       <c r="G6" s="3">
         <f>MEDIAN(D2:D11)</f>
         <v>6300</v>
@@ -5779,10 +7071,11 @@
       <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -5801,6 +7094,7 @@
       <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="F8" s="12"/>
       <c r="G8" s="2" t="s">
         <v>20</v>
       </c>
@@ -5830,6 +7124,7 @@
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="F9" s="12"/>
       <c r="G9" s="3">
         <f>MAX(D2:D11)-MIN(D2:D11)</f>
         <v>3800</v>
@@ -5839,8 +7134,8 @@
         <v>6950</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" ref="I9:I16" si="0">(D2-G$3)/_xlfn.STDEV.S(D$2:D$11)</f>
-        <v>-0.15996226301201663</v>
+        <f t="shared" ref="I9:I16" si="0">ROUND((D2-G$3)/_xlfn.STDEV.S(D$2:D$11),2)</f>
+        <v>-0.16</v>
       </c>
       <c r="J9" s="3">
         <f>_xlfn.PERCENTILE.INC(D2:D11, 0.8)</f>
@@ -5864,11 +7159,12 @@
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
-        <v>0.90645282373476088</v>
+        <v>0.91</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -5889,6 +7185,7 @@
       <c r="E11" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="F11" s="12"/>
       <c r="G11" s="2" t="s">
         <v>27</v>
       </c>
@@ -5897,7 +7194,7 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" si="0"/>
-        <v>-1.0486415019676645</v>
+        <v>-1.05</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>35</v>
@@ -5905,6 +7202,7 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F12" s="12"/>
       <c r="G12" s="3" t="e">
         <f>_xlfn.MODE.SNGL(D2:D11)</f>
         <v>#N/A</v>
@@ -5915,7 +7213,7 @@
       </c>
       <c r="I12" s="3">
         <f t="shared" si="0"/>
-        <v>-2.1150565887144421</v>
+        <v>-2.12</v>
       </c>
       <c r="J12" s="3">
         <f>ROUND(_xlfn.PERCENTRANK.INC(D2:D11, 6400),2)</f>
@@ -5924,9 +7222,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="3">
         <f t="shared" si="0"/>
-        <v>0.55098112815250178</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -5934,9 +7234,10 @@
       <c r="G14" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="H14" s="10"/>
       <c r="I14" s="3">
         <f t="shared" si="0"/>
-        <v>0.19550943257024256</v>
+        <v>0.2</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>44</v>
@@ -5945,30 +7246,35 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="G15" s="3">
-        <f>SKEW(Table1[Monthly Sales])</f>
-        <v>-0.87745598282388337</v>
-      </c>
+        <f>ROUND(SKEW(Table1[Monthly Sales]),2)</f>
+        <v>-0.88</v>
+      </c>
+      <c r="H15" s="10"/>
       <c r="I15" s="3">
         <f t="shared" si="0"/>
-        <v>-0.33769811080314621</v>
+        <v>-0.34</v>
       </c>
       <c r="J15" s="3">
-        <f>KURT(Table1[Bonus])</f>
-        <v>1.0780860587810395</v>
+        <f>ROUND(KURT(Table1[Bonus]),2)</f>
+        <v>1.08</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16"/>
+      <c r="H16" s="10"/>
       <c r="I16" s="3">
         <f t="shared" si="0"/>
-        <v>0.72871697594363127</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17"/>
+      <c r="H17" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="I17" s="3">
         <f>SUBTOTAL(104,Table16[Outliners in Bonus])</f>
-        <v>0.90645282373476088</v>
+        <v>0.91</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>46</v>
@@ -5977,16 +7283,22 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="J18" s="3">
-        <f>CORREL(Table1[Monthly Sales],Table1[Bonus])</f>
-        <v>0.96559008857624051</v>
+        <f>ROUND(CORREL(Table1[Monthly Sales],Table1[Bonus]),2)</f>
+        <v>0.97</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="F1:F12"/>
     <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G13:H13"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C11">
     <cfRule type="colorScale" priority="2">
@@ -5999,15 +7311,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>3800</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>7600</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Excellent">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Excellent">
       <formula>NOT(ISERROR(SEARCH("Excellent",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6022,6 +7334,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <tableParts count="19">
@@ -6053,14 +7366,14 @@
   <dimension ref="A3:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -6078,10 +7391,10 @@
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="11">
         <v>40800</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <v>156000</v>
       </c>
     </row>
@@ -6089,10 +7402,10 @@
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="11">
         <v>7000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="11">
         <v>25000</v>
       </c>
     </row>
@@ -6100,10 +7413,10 @@
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="11">
         <v>7000</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="11">
         <v>25000</v>
       </c>
     </row>
@@ -6111,10 +7424,10 @@
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="11">
         <v>21600</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="11">
         <v>84000</v>
       </c>
     </row>
@@ -6122,10 +7435,10 @@
       <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="11">
         <v>7600</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="11">
         <v>29000</v>
       </c>
     </row>
@@ -6133,10 +7446,10 @@
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="11">
         <v>6800</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="11">
         <v>28000</v>
       </c>
     </row>
@@ -6144,10 +7457,10 @@
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="11">
         <v>7200</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="11">
         <v>27000</v>
       </c>
     </row>
@@ -6155,10 +7468,10 @@
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="11">
         <v>12200</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="11">
         <v>47000</v>
       </c>
     </row>
@@ -6166,10 +7479,10 @@
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="11">
         <v>6000</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="11">
         <v>23000</v>
       </c>
     </row>
@@ -6177,10 +7490,10 @@
       <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="11">
         <v>6200</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="11">
         <v>24000</v>
       </c>
     </row>
@@ -6188,10 +7501,10 @@
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="11">
         <v>17200</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="11">
         <v>66500</v>
       </c>
     </row>
@@ -6199,10 +7512,10 @@
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="11">
         <v>6400</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="11">
         <v>26000</v>
       </c>
     </row>
@@ -6210,10 +7523,10 @@
       <c r="A16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="11">
         <v>6400</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="11">
         <v>26000</v>
       </c>
     </row>
@@ -6221,10 +7534,10 @@
       <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="11">
         <v>10800</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="11">
         <v>40500</v>
       </c>
     </row>
@@ -6232,10 +7545,10 @@
       <c r="A18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="11">
         <v>5800</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="11">
         <v>21000</v>
       </c>
     </row>
@@ -6243,10 +7556,10 @@
       <c r="A19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="11">
         <v>5000</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="11">
         <v>19500</v>
       </c>
     </row>
@@ -6254,10 +7567,10 @@
       <c r="A20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="11">
         <v>3800</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="11">
         <v>15000</v>
       </c>
     </row>
@@ -6265,10 +7578,10 @@
       <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="11">
         <v>3800</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="11">
         <v>15000</v>
       </c>
     </row>
@@ -6276,10 +7589,10 @@
       <c r="A22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="11">
         <v>3800</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="11">
         <v>15000</v>
       </c>
     </row>
@@ -6287,15 +7600,16 @@
       <c r="A23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="11">
         <v>61800</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="11">
         <v>237500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -6309,7 +7623,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -6559,5 +7873,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>